--- a/dados/ibge_cap_porto.xlsx
+++ b/dados/ibge_cap_porto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documents\IC\Progs\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CFFA9A-8FBC-4DA5-8419-BA4F85D0CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D00CEB-2C68-4F4E-8F20-959010E38C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE074E8A-4C8B-4052-B9CC-32020917CDCE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SANTOS, SP, Brazil</t>
   </si>
@@ -47,15 +47,6 @@
   </si>
   <si>
     <t>ILHÉUS, BA, Brazil</t>
-  </si>
-  <si>
-    <t>SALVADOR, BA, Brazil</t>
-  </si>
-  <si>
-    <t>RIO GRANDE, RS, Brazil</t>
-  </si>
-  <si>
-    <t>SÃO FRANCISCO DO SUL, SC, Brazil</t>
   </si>
   <si>
     <t>Total</t>
@@ -410,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEB0C1B-A9EA-4679-BE5A-C1090480514B}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +418,7 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,41 +434,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5922516.7120000003</v>
+        <v>5041870.6000000006</v>
       </c>
       <c r="B2">
-        <v>725206.12800000003</v>
+        <v>620537.92000000004</v>
       </c>
       <c r="C2">
-        <v>1933883.0079999999</v>
+        <v>1628912.04</v>
       </c>
       <c r="D2">
-        <v>725206.12800000003</v>
+        <v>465403.44</v>
       </c>
       <c r="E2">
-        <v>846073.81599999999</v>
-      </c>
-      <c r="F2">
-        <v>145041225.59999999</v>
-      </c>
-      <c r="G2">
-        <v>483470.75199999998</v>
-      </c>
-      <c r="H2">
-        <f>SUM(A2:G2)</f>
-        <v>155677582.14399999</v>
+        <f>SUM(A2:D2)</f>
+        <v>7756724.0000000009</v>
       </c>
     </row>
   </sheetData>
